--- a/biology/Botanique/Frasera/Frasera.xlsx
+++ b/biology/Botanique/Frasera/Frasera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frasera est un genre de plantes de la famille des Gentianaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (20 mars 2019)[2] et The Plant List            (20 mars 2019)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (20 mars 2019) et The Plant List            (20 mars 2019) :
 Frasera ackermaniae C.C.Newb. &amp; Goodrich
 Frasera albicaulis Griseb.
 Frasera albomarginata S.Watson
@@ -529,7 +543,7 @@
 Frasera speciosa Douglas ex Hook.
 Frasera tubulosa Coville
 Frasera umpquaensis M.Peck &amp; Applegate
-Selon Catalogue of Life                                   (20 mars 2019)[4] :
+Selon Catalogue of Life                                   (20 mars 2019) :
 Frasera ackermaniae C. C. Newb. &amp; Goodrich
 Frasera albicaulis Dougl. ex Griseb.
 Frasera albomarginata S. Wats.
@@ -544,7 +558,7 @@
 Frasera puberulenta Davidson
 Frasera speciosa Dougl. ex Hook.
 Frasera tubulosa Coville
-Selon GRIN            (20 mars 2019)[5] :
+Selon GRIN            (20 mars 2019) :
 Frasera ackermaniae C. C. Newb. &amp; Goodrich
 Frasera albicaulis Griseb.
 Frasera albomarginata S. Watson
@@ -554,7 +568,7 @@
 Frasera montana Mulford
 Frasera speciosa Douglas ex Griseb.
 Frasera spp.
-Selon ITIS      (20 mars 2019)[6] :
+Selon ITIS      (20 mars 2019) :
 Frasera albicaulis Douglas ex Griseb.
 Frasera albomarginata S. Watson
 Frasera caroliniensis Walter
@@ -568,7 +582,7 @@
 Frasera puberulenta Davidson
 Frasera speciosa Douglas ex Griseb.
 Frasera tubulosa Coville
-Selon Tropicos                                           (20 mars 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (20 mars 2019) (Attention liste brute contenant possiblement des synonymes) :
 Frasera ackermaniae C.C.Newb. &amp; Goodrich
 Frasera albicaulis Griseb.
 Frasera albomarginata S. Watson
